--- a/AIRU_WEARABLE_BOM_SEEED_STUDIO.xlsx
+++ b/AIRU_WEARABLE_BOM_SEEED_STUDIO.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\grad-school\laboratory\airQualityControl\repository\airu-board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tom\Google Drive\TBECNEL\AirU\airu-board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBF56FA-83A8-4A07-A859-0B9F2D68F9E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A121A01F-6965-4809-85EB-2BBE2F02E7DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31545" yWindow="3240" windowWidth="20910" windowHeight="11835" xr2:uid="{8A767C90-214E-4A70-98AA-A71A7D071985}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A767C90-214E-4A70-98AA-A71A7D071985}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$G$51</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$G$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="153">
   <si>
     <t>Value</t>
   </si>
@@ -57,18 +56,6 @@
     <t>MPN</t>
   </si>
   <si>
-    <t>5.0V1</t>
-  </si>
-  <si>
-    <t>TPTP20SQ</t>
-  </si>
-  <si>
-    <t>TP20SQ</t>
-  </si>
-  <si>
-    <t>Test pad</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -414,15 +401,6 @@
     <t>R22</t>
   </si>
   <si>
-    <t>TP_3V3</t>
-  </si>
-  <si>
-    <t>TP_VBAT</t>
-  </si>
-  <si>
-    <t>TP_VIN</t>
-  </si>
-  <si>
     <t>U$4</t>
   </si>
   <si>
@@ -507,21 +485,6 @@
     <t>MICRO-USB5+6P-SMD-0.65-AB</t>
   </si>
   <si>
-    <t>320010005</t>
-  </si>
-  <si>
-    <t>VBAT</t>
-  </si>
-  <si>
-    <t>CONN_02-JST-2MM-SMT</t>
-  </si>
-  <si>
-    <t>JST-2-SMD</t>
-  </si>
-  <si>
-    <t>Multi connection point. Often used as Generic Header-pin footprint for 0.1 inch spaced/style header connections</t>
-  </si>
-  <si>
     <t>Designator</t>
   </si>
   <si>
@@ -535,6 +498,9 @@
   </si>
   <si>
     <t>MOLEX Connector</t>
+  </si>
+  <si>
+    <t>PAM2401SCADJ</t>
   </si>
 </sst>
 </file>
@@ -645,16 +611,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F4CF792-EB70-430A-8786-40BB3E9217BC}" name="WAirU_v1_1" displayName="WAirU_v1_1" ref="A1:G51" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G51" xr:uid="{3E80C68B-2697-4502-BE9E-478EC69DB586}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F4CF792-EB70-430A-8786-40BB3E9217BC}" name="WAirU_v1_1" displayName="WAirU_v1_1" ref="A1:G46" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G46" xr:uid="{3E80C68B-2697-4502-BE9E-478EC69DB586}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F7118762-D6F2-4981-B7A0-2483BB08F4E9}" uniqueName="1" name="Designator" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{85AD2255-F5E3-4EA3-A0FE-9359AAACBEB1}" uniqueName="5" name="MPN/Seeed SKU" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{D770449F-D27A-4D62-BA68-95BCAD09C6F8}" uniqueName="21" name="Qty" queryTableFieldId="22" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{3D96529D-0EA4-4590-A0AF-244E5886D267}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{143B0A87-9C03-4553-B15D-68E8CAA76336}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B5B92BA1-6EFB-44C8-968A-19AD3C69CA90}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{B1433760-A7C9-47F6-8522-F2DC1458CD60}" uniqueName="12" name="MPN" queryTableFieldId="12" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{85AD2255-F5E3-4EA3-A0FE-9359AAACBEB1}" uniqueName="5" name="MPN/Seeed SKU" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{D770449F-D27A-4D62-BA68-95BCAD09C6F8}" uniqueName="21" name="Qty" queryTableFieldId="22" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{3D96529D-0EA4-4590-A0AF-244E5886D267}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{143B0A87-9C03-4553-B15D-68E8CAA76336}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B5B92BA1-6EFB-44C8-968A-19AD3C69CA90}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{B1433760-A7C9-47F6-8522-F2DC1458CD60}" uniqueName="12" name="MPN" queryTableFieldId="12" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -957,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181CE45F-9905-4FC1-AA9F-E6B8EBB73FC0}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,13 +943,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1000,194 +966,194 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1196,225 +1162,225 @@
         <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>62</v>
@@ -1423,108 +1389,108 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1532,7 +1498,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1541,133 +1507,133 @@
         <v>77</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>102</v>
@@ -1676,13 +1642,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>103</v>
@@ -1693,30 +1659,30 @@
         <v>104</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1725,90 +1691,90 @@
         <v>87</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1817,335 +1783,220 @@
         <v>112</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>127</v>
+      <c r="D44" t="s">
+        <v>152</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="B46">
+        <v>320010005</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>8</v>
+      <c r="G46">
+        <v>320010005</v>
       </c>
     </row>
   </sheetData>
